--- a/tables/Table1_final_depletion_priors.xlsx
+++ b/tables/Table1_final_depletion_priors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/com_review/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A7A55-AA0F-144B-8596-C9B0EBF68AA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B41BF8F-F986-8346-878F-1C59F8148DD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14500" xr2:uid="{30EEEBCE-3399-534B-A3CA-6D621B793149}"/>
   </bookViews>
@@ -118,12 +118,6 @@
     <t>Catch-MSY (Martell &amp; Froese 2013)</t>
   </si>
   <si>
-    <t>Depletion</t>
-  </si>
-  <si>
-    <t>Saturation</t>
-  </si>
-  <si>
     <t>0.4 - 0.7</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>Depletion (B/K)</t>
+  </si>
+  <si>
+    <t>Depletion (1 - B/K)</t>
   </si>
 </sst>
 </file>
@@ -588,167 +588,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2D21C7-E8BA-FD4C-AFA3-29CD2E61170B}">
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="20" thickBot="1">
+    <row r="2" spans="1:4" ht="20" thickBot="1">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" thickTop="1">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickTop="1">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19">
+    </row>
+    <row r="6" spans="1:4" ht="19">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="19">
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19">
       <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Table1_final_depletion_priors.xlsx
+++ b/tables/Table1_final_depletion_priors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/com_review/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B41BF8F-F986-8346-878F-1C59F8148DD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E6300-334C-464C-A9D9-46929212203A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14500" xr2:uid="{30EEEBCE-3399-534B-A3CA-6D621B793149}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
